--- a/biology/Zoologie/Insecutor/Insecutor.xlsx
+++ b/biology/Zoologie/Insecutor/Insecutor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Insecutoridae
 Insecutor est un genre fossile d'araignées aranéomorphes, le seul de la famille des Insecutoridae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique. Elles datent du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 16.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 16.5 :
 †Insecutor aculeatus Petrunkevitch, 1942
 †Insecutor mandibulatus Petrunkevitch, 1942
 †Insecutor pecten Wunderlich, 2004
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Petrunkevitch, 1942 : A study of amber spiders. Transactions of the Connecticut Academy of Arts and Sciences, vol. 34, p. 119–464.</t>
         </is>
